--- a/Testcase and Defect Template.xlsx
+++ b/Testcase and Defect Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FA_AUT_05\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69AECEFF-03F4-446D-8F53-2A94723B35E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8F9C694-042F-4D07-AE76-E8FEF45A7081}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="18490" windowHeight="11020" activeTab="1" xr2:uid="{665A7571-96A4-45CA-B3FB-95800806DC2C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="18490" windowHeight="11020" xr2:uid="{665A7571-96A4-45CA-B3FB-95800806DC2C}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Case" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="132">
   <si>
     <t>Author</t>
   </si>
@@ -215,21 +215,6 @@
     <t>Register successfully and Navigate to My Account page with the user name in the right top of the browser</t>
   </si>
   <si>
-    <t>Navigate to Address page</t>
-  </si>
-  <si>
-    <t>All information are matched</t>
-  </si>
-  <si>
-    <t>Navigate to My account page</t>
-  </si>
-  <si>
-    <t>Navigate to Identity page</t>
-  </si>
-  <si>
-    <t>6. Click "Back to your account" button</t>
-  </si>
-  <si>
     <t>TC_Final_004</t>
   </si>
   <si>
@@ -309,38 +294,6 @@
   </si>
   <si>
     <t>Verify new user can register an account successfully with valid email and password and information of My Account page is matched with Register information</t>
-  </si>
-  <si>
-    <t>4. Click "My Address" button</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5. Verify My Address information match with Register information </t>
-  </si>
-  <si>
-    <t>7. Click "My Personal Information" button</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8. Verify Identity information match with Register information </t>
-  </si>
-  <si>
-    <t>9. Click "Back to your account" button</t>
-  </si>
-  <si>
-    <t>5.
-"Trong Kha" "Nguyen"
-"123"
-"Ho Chi Minh City", "Alaska" "12345"
-"United States"
-"0852478590"
-"0852478590"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8. 
-Firstname: "Trong Kha"
-Lastname: "Nguyen"
-E-mail: "nguyentrongkha11031999@gmail.com"
-Date of birth: "11-01-1999"
-</t>
   </si>
   <si>
     <t>Purchased 3 different products</t>
@@ -482,7 +435,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -608,9 +561,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -623,20 +573,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -647,22 +603,19 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1078,49 +1031,49 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAFD4240-7560-41E1-8916-0B68A069C969}">
-  <dimension ref="A1:H77"/>
+  <dimension ref="A1:H71"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:A39"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="S23" sqref="S23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="13.453125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="20.453125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="15.1796875" style="5" customWidth="1"/>
-    <col min="4" max="4" width="17.7265625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="15" style="5" customWidth="1"/>
-    <col min="6" max="6" width="31.90625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="20.6328125" style="5" customWidth="1"/>
-    <col min="8" max="8" width="10.08984375" style="5" customWidth="1"/>
-    <col min="9" max="16384" width="8.7265625" style="5"/>
+    <col min="1" max="1" width="13.453125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="20.453125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="15.1796875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="17.7265625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="15" style="4" customWidth="1"/>
+    <col min="6" max="6" width="31.90625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="20.6328125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="10.08984375" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="8.7265625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" ht="15" thickBot="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-    </row>
-    <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C1" s="12"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+    </row>
+    <row r="2" spans="1:8" ht="15" thickBot="1">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-    </row>
-    <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="5" spans="1:8" ht="18.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C2" s="12"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="4" spans="1:8" ht="15" thickBot="1"/>
+    <row r="5" spans="1:8" ht="18.5" customHeight="1" thickBot="1">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -1146,1026 +1099,940 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="87.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="8" t="s">
+    <row r="6" spans="1:8" ht="87.5" customHeight="1" thickBot="1">
+      <c r="A6" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="H6" s="7"/>
-    </row>
-    <row r="7" spans="1:8" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="7" t="s">
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="1:8" ht="44" thickBot="1">
+      <c r="A7" s="20"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-    </row>
-    <row r="8" spans="1:8" ht="87.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="7" t="s">
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+    </row>
+    <row r="8" spans="1:8" ht="87.5" thickBot="1">
+      <c r="A8" s="20"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="H8" s="7"/>
-    </row>
-    <row r="9" spans="1:8" ht="87.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="7" t="s">
+      <c r="H8" s="6"/>
+    </row>
+    <row r="9" spans="1:8" ht="87.5" thickBot="1">
+      <c r="A9" s="20"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="H9" s="7"/>
-    </row>
-    <row r="10" spans="1:8" ht="102" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="7" t="s">
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:8" ht="102" thickBot="1">
+      <c r="A10" s="20"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="H10" s="7"/>
-    </row>
-    <row r="11" spans="1:8" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="7" t="s">
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" spans="1:8" ht="29.5" thickBot="1">
+      <c r="A11" s="20"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G11" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="H11" s="7"/>
-    </row>
-    <row r="12" spans="1:8" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="7" t="s">
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="1:8" ht="58.5" thickBot="1">
+      <c r="A12" s="20"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="G12" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="H12" s="7"/>
-    </row>
-    <row r="13" spans="1:8" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="7" t="s">
+      <c r="H12" s="6"/>
+    </row>
+    <row r="13" spans="1:8" ht="58.5" thickBot="1">
+      <c r="A13" s="20"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="G13" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="H13" s="7"/>
-    </row>
-    <row r="14" spans="1:8" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="7" t="s">
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" spans="1:8" ht="58.5" thickBot="1">
+      <c r="A14" s="20"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="G14" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="H14" s="7"/>
-    </row>
-    <row r="15" spans="1:8" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="7" t="s">
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="1:8" ht="58.5" thickBot="1">
+      <c r="A15" s="20"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="G15" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="H15" s="7"/>
-    </row>
-    <row r="16" spans="1:8" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="7" t="s">
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="1:8" ht="58.5" thickBot="1">
+      <c r="A16" s="20"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="F16" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="G16" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="H16" s="7"/>
-    </row>
-    <row r="17" spans="1:8" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="7" t="s">
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="1:8" ht="58.5" thickBot="1">
+      <c r="A17" s="20"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F17" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="G17" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="H17" s="7"/>
-    </row>
-    <row r="18" spans="1:8" ht="73" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="7" t="s">
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="1:8" ht="73" thickBot="1">
+      <c r="A18" s="20"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="F18" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="G18" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="H18" s="7"/>
-    </row>
-    <row r="19" spans="1:8" ht="73" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="7" t="s">
+      <c r="H18" s="6"/>
+    </row>
+    <row r="19" spans="1:8" ht="73" thickBot="1">
+      <c r="A19" s="21"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7" t="s">
+      <c r="F19" s="6"/>
+      <c r="G19" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="H19" s="7"/>
-    </row>
-    <row r="20" spans="1:8" ht="116.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="11" t="s">
+      <c r="H19" s="6"/>
+    </row>
+    <row r="20" spans="1:8" ht="116.5" customHeight="1" thickBot="1">
+      <c r="A20" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="C20" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="D20" s="11" t="s">
+      <c r="C20" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D20" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="E20" s="12" t="s">
+      <c r="E20" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F20" s="12" t="s">
+      <c r="F20" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G20" s="12" t="s">
+      <c r="G20" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="H20" s="12"/>
-    </row>
-    <row r="21" spans="1:8" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="13"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="12" t="s">
+      <c r="H20" s="7"/>
+    </row>
+    <row r="21" spans="1:8" ht="58.5" thickBot="1">
+      <c r="A21" s="14"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="F21" s="12" t="s">
+      <c r="F21" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="G21" s="12" t="s">
+      <c r="G21" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="H21" s="12"/>
-    </row>
-    <row r="22" spans="1:8" ht="73" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="13"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="12" t="s">
+      <c r="H21" s="7"/>
+    </row>
+    <row r="22" spans="1:8" ht="73" thickBot="1">
+      <c r="A22" s="14"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12" t="s">
+      <c r="F22" s="7"/>
+      <c r="G22" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="H22" s="12"/>
-    </row>
-    <row r="23" spans="1:8" ht="87.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="13"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="H23" s="12"/>
-    </row>
-    <row r="24" spans="1:8" ht="102" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="13"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="F24" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="G24" s="12" t="s">
+      <c r="H22" s="7"/>
+    </row>
+    <row r="23" spans="1:8" ht="87.5" thickBot="1">
+      <c r="A23" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="H24" s="12"/>
-    </row>
-    <row r="25" spans="1:8" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="13"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="12" t="s">
+      <c r="C23" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="E23" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="H25" s="12"/>
-    </row>
-    <row r="26" spans="1:8" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="13"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="H26" s="12"/>
-    </row>
-    <row r="27" spans="1:8" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="13"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="F27" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-    </row>
-    <row r="28" spans="1:8" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="14"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="H28" s="12"/>
-    </row>
-    <row r="29" spans="1:8" ht="87.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="B29" s="15" t="s">
+      <c r="F23" s="8"/>
+      <c r="G23" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="H23" s="8"/>
+    </row>
+    <row r="24" spans="1:8" ht="44" thickBot="1">
+      <c r="A24" s="17"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="C29" s="15" t="s">
+      <c r="F24" s="8"/>
+      <c r="G24" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="D29" s="15" t="s">
+      <c r="H24" s="8"/>
+    </row>
+    <row r="25" spans="1:8" ht="44" thickBot="1">
+      <c r="A25" s="17"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="H25" s="8"/>
+    </row>
+    <row r="26" spans="1:8" ht="44" thickBot="1">
+      <c r="A26" s="17"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="H26" s="8"/>
+    </row>
+    <row r="27" spans="1:8" ht="44" thickBot="1">
+      <c r="A27" s="17"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="H27" s="8"/>
+    </row>
+    <row r="28" spans="1:8" ht="73" thickBot="1">
+      <c r="A28" s="17"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="E29" s="16" t="s">
+      <c r="H28" s="8"/>
+    </row>
+    <row r="29" spans="1:8" ht="58.5" thickBot="1">
+      <c r="A29" s="17"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="H29" s="16"/>
-    </row>
-    <row r="30" spans="1:8" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H29" s="8"/>
+    </row>
+    <row r="30" spans="1:8" ht="44" thickBot="1">
       <c r="A30" s="17"/>
       <c r="B30" s="17"/>
       <c r="C30" s="17"/>
       <c r="D30" s="17"/>
-      <c r="E30" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="H30" s="16"/>
-    </row>
-    <row r="31" spans="1:8" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E30" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+    </row>
+    <row r="31" spans="1:8" ht="58.5" thickBot="1">
       <c r="A31" s="17"/>
       <c r="B31" s="17"/>
       <c r="C31" s="17"/>
       <c r="D31" s="17"/>
-      <c r="E31" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="F31" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="G31" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="H31" s="16"/>
-    </row>
-    <row r="32" spans="1:8" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E31" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="H31" s="8"/>
+    </row>
+    <row r="32" spans="1:8" ht="44" thickBot="1">
       <c r="A32" s="17"/>
       <c r="B32" s="17"/>
       <c r="C32" s="17"/>
       <c r="D32" s="17"/>
-      <c r="E32" s="16" t="s">
+      <c r="E32" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="H32" s="8"/>
+    </row>
+    <row r="33" spans="1:8" ht="44" thickBot="1">
+      <c r="A33" s="18"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="H33" s="8"/>
+    </row>
+    <row r="34" spans="1:8" ht="87.5" thickBot="1">
+      <c r="A34" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="C34" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="F32" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="G32" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="H32" s="16"/>
-    </row>
-    <row r="33" spans="1:8" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="17"/>
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="16" t="s">
+      <c r="D34" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H34" s="7"/>
+    </row>
+    <row r="35" spans="1:8" ht="73" thickBot="1">
+      <c r="A35" s="14"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="F33" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="G33" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="H33" s="16"/>
-    </row>
-    <row r="34" spans="1:8" ht="73" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="17"/>
-      <c r="B34" s="17"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="F34" s="16"/>
-      <c r="G34" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="H34" s="16"/>
-    </row>
-    <row r="35" spans="1:8" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="17"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="F35" s="16"/>
-      <c r="G35" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="H35" s="16"/>
-    </row>
-    <row r="36" spans="1:8" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="17"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="F36" s="16"/>
-      <c r="G36" s="16"/>
-      <c r="H36" s="16"/>
-    </row>
-    <row r="37" spans="1:8" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="17"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="F37" s="16"/>
-      <c r="G37" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="H37" s="16"/>
-    </row>
-    <row r="38" spans="1:8" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="17"/>
-      <c r="B38" s="17"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="F38" s="16"/>
-      <c r="G38" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="H38" s="16"/>
-    </row>
-    <row r="39" spans="1:8" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="18"/>
-      <c r="B39" s="18"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="F39" s="16"/>
-      <c r="G39" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="H39" s="16"/>
-    </row>
-    <row r="40" spans="1:8" ht="87.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="11" t="s">
+      <c r="H35" s="7"/>
+    </row>
+    <row r="36" spans="1:8" ht="73" thickBot="1">
+      <c r="A36" s="14"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="B40" s="11" t="s">
+      <c r="H36" s="7"/>
+    </row>
+    <row r="37" spans="1:8" ht="73" thickBot="1">
+      <c r="A37" s="14"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H37" s="7"/>
+    </row>
+    <row r="38" spans="1:8" ht="73" thickBot="1">
+      <c r="A38" s="14"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H38" s="7"/>
+    </row>
+    <row r="39" spans="1:8" ht="44" thickBot="1">
+      <c r="A39" s="14"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H39" s="7"/>
+    </row>
+    <row r="40" spans="1:8" ht="73" thickBot="1">
+      <c r="A40" s="14"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="H40" s="7"/>
+    </row>
+    <row r="41" spans="1:8" ht="58.5" thickBot="1">
+      <c r="A41" s="14"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H41" s="7"/>
+    </row>
+    <row r="42" spans="1:8" ht="44" thickBot="1">
+      <c r="A42" s="14"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+    </row>
+    <row r="43" spans="1:8" ht="73" thickBot="1">
+      <c r="A43" s="14"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H43" s="7"/>
+    </row>
+    <row r="44" spans="1:8" ht="44" thickBot="1">
+      <c r="A44" s="14"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="C40" s="11" t="s">
+      <c r="F44" s="7"/>
+      <c r="G44" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="H44" s="7"/>
+    </row>
+    <row r="45" spans="1:8" ht="44" thickBot="1">
+      <c r="A45" s="15"/>
+      <c r="B45" s="15"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="D40" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="E40" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="F40" s="12"/>
-      <c r="G40" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="H40" s="12"/>
-    </row>
-    <row r="41" spans="1:8" ht="73" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="13"/>
-      <c r="B41" s="13"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="12" t="s">
+      <c r="F45" s="7"/>
+      <c r="G45" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H45" s="7"/>
+    </row>
+    <row r="46" spans="1:8" ht="87.5" customHeight="1" thickBot="1">
+      <c r="A46" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="F41" s="12"/>
-      <c r="G41" s="12" t="s">
+      <c r="B46" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D46" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="E46" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="H41" s="12"/>
-    </row>
-    <row r="42" spans="1:8" ht="73" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="13"/>
-      <c r="B42" s="13"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="12" t="s">
+      <c r="F46" s="6"/>
+      <c r="G46" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="F42" s="12"/>
-      <c r="G42" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="H42" s="12"/>
-    </row>
-    <row r="43" spans="1:8" ht="73" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="13"/>
-      <c r="B43" s="13"/>
-      <c r="C43" s="13"/>
-      <c r="D43" s="13"/>
-      <c r="E43" s="12" t="s">
+      <c r="H46" s="6"/>
+    </row>
+    <row r="47" spans="1:8" ht="44" thickBot="1">
+      <c r="A47" s="12"/>
+      <c r="B47" s="12"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="F43" s="12"/>
-      <c r="G43" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="H43" s="12"/>
-    </row>
-    <row r="44" spans="1:8" ht="73" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="13"/>
-      <c r="B44" s="13"/>
-      <c r="C44" s="13"/>
-      <c r="D44" s="13"/>
-      <c r="E44" s="12" t="s">
+      <c r="F47" s="6"/>
+      <c r="G47" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="F44" s="12"/>
-      <c r="G44" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="H44" s="12"/>
-    </row>
-    <row r="45" spans="1:8" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="13"/>
-      <c r="B45" s="13"/>
-      <c r="C45" s="13"/>
-      <c r="D45" s="13"/>
-      <c r="E45" s="12" t="s">
+      <c r="H47" s="6"/>
+    </row>
+    <row r="48" spans="1:8" ht="73" thickBot="1">
+      <c r="A48" s="12"/>
+      <c r="B48" s="12"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="F45" s="12"/>
-      <c r="G45" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="H45" s="12"/>
-    </row>
-    <row r="46" spans="1:8" ht="73" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="13"/>
-      <c r="B46" s="13"/>
-      <c r="C46" s="13"/>
-      <c r="D46" s="13"/>
-      <c r="E46" s="12" t="s">
+      <c r="F48" s="6"/>
+      <c r="G48" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="F46" s="12"/>
-      <c r="G46" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="H46" s="12"/>
-    </row>
-    <row r="47" spans="1:8" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="13"/>
-      <c r="B47" s="13"/>
-      <c r="C47" s="13"/>
-      <c r="D47" s="13"/>
-      <c r="E47" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="F47" s="12"/>
-      <c r="G47" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="H47" s="12"/>
-    </row>
-    <row r="48" spans="1:8" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="13"/>
-      <c r="B48" s="13"/>
-      <c r="C48" s="13"/>
-      <c r="D48" s="13"/>
-      <c r="E48" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="F48" s="12"/>
-      <c r="G48" s="12"/>
-      <c r="H48" s="12"/>
-    </row>
-    <row r="49" spans="1:8" ht="73" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="13"/>
-      <c r="B49" s="13"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="12" t="s">
+      <c r="H48" s="6"/>
+    </row>
+    <row r="49" spans="1:8" ht="131" thickBot="1">
+      <c r="A49" s="12"/>
+      <c r="B49" s="12"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="F49" s="12"/>
-      <c r="G49" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="H49" s="12"/>
-    </row>
-    <row r="50" spans="1:8" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="13"/>
-      <c r="B50" s="13"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="F50" s="12"/>
-      <c r="G50" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="H50" s="12"/>
-    </row>
-    <row r="51" spans="1:8" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="14"/>
-      <c r="B51" s="14"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="12" t="s">
+      <c r="H49" s="6"/>
+    </row>
+    <row r="50" spans="1:8" ht="58.5" thickBot="1">
+      <c r="A50" s="12"/>
+      <c r="B50" s="12"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="F51" s="12"/>
-      <c r="G51" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="H51" s="12"/>
-    </row>
-    <row r="52" spans="1:8" ht="87.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="3" t="s">
+      <c r="F50" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="B52" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E52" s="7" t="s">
+      <c r="G50" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="F52" s="7"/>
-      <c r="G52" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="H52" s="7"/>
-    </row>
-    <row r="53" spans="1:8" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="3"/>
-      <c r="B53" s="3"/>
-      <c r="C53" s="3"/>
-      <c r="D53" s="3"/>
-      <c r="E53" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="F53" s="7"/>
-      <c r="G53" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="H53" s="7"/>
-    </row>
-    <row r="54" spans="1:8" ht="73" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="3"/>
-      <c r="B54" s="3"/>
-      <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
-      <c r="E54" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="F54" s="7"/>
-      <c r="G54" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="H54" s="7"/>
-    </row>
-    <row r="55" spans="1:8" ht="131" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="3"/>
-      <c r="B55" s="3"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
-      <c r="E55" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="F55" s="7"/>
-      <c r="G55" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="H55" s="7"/>
-    </row>
-    <row r="56" spans="1:8" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A56" s="3"/>
-      <c r="B56" s="3"/>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
-      <c r="E56" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="F56" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="G56" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="H56" s="7"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A57" s="19"/>
-      <c r="B57" s="19"/>
-      <c r="C57" s="19"/>
-      <c r="D57" s="19"/>
-      <c r="E57" s="20"/>
-      <c r="F57" s="20"/>
-      <c r="G57" s="20"/>
-      <c r="H57" s="20"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A58" s="19"/>
-      <c r="B58" s="19"/>
-      <c r="C58" s="19"/>
-      <c r="D58" s="19"/>
-      <c r="E58" s="20"/>
-      <c r="F58" s="20"/>
-      <c r="G58" s="20"/>
-      <c r="H58" s="20"/>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A59" s="19"/>
-      <c r="B59" s="19"/>
-      <c r="C59" s="19"/>
-      <c r="D59" s="19"/>
-      <c r="E59" s="20"/>
-      <c r="F59" s="20"/>
-      <c r="G59" s="20"/>
-      <c r="H59" s="20"/>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A60" s="19"/>
-      <c r="B60" s="19"/>
-      <c r="C60" s="19"/>
-      <c r="D60" s="19"/>
-      <c r="E60" s="20"/>
-      <c r="F60" s="20"/>
-      <c r="G60" s="20"/>
-      <c r="H60" s="20"/>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A61" s="19"/>
-      <c r="B61" s="19"/>
-      <c r="C61" s="19"/>
-      <c r="D61" s="19"/>
-      <c r="E61" s="20"/>
-      <c r="F61" s="20"/>
-      <c r="G61" s="20"/>
-      <c r="H61" s="20"/>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A62" s="19"/>
-      <c r="B62" s="19"/>
-      <c r="C62" s="19"/>
-      <c r="D62" s="19"/>
-      <c r="E62" s="20"/>
-      <c r="F62" s="20"/>
-      <c r="G62" s="20"/>
-      <c r="H62" s="20"/>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A63" s="19"/>
-      <c r="B63" s="19"/>
-      <c r="C63" s="19"/>
-      <c r="D63" s="19"/>
-      <c r="E63" s="20"/>
-      <c r="F63" s="20"/>
-      <c r="G63" s="20"/>
-      <c r="H63" s="20"/>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A64" s="19"/>
-      <c r="B64" s="19"/>
-      <c r="C64" s="19"/>
-      <c r="D64" s="19"/>
-      <c r="E64" s="20"/>
-      <c r="F64" s="20"/>
-      <c r="G64" s="20"/>
-      <c r="H64" s="20"/>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A65" s="19"/>
-      <c r="B65" s="19"/>
-      <c r="C65" s="19"/>
-      <c r="D65" s="19"/>
-      <c r="E65" s="20"/>
-      <c r="F65" s="20"/>
-      <c r="G65" s="20"/>
-      <c r="H65" s="20"/>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A66" s="19"/>
-      <c r="B66" s="19"/>
-      <c r="C66" s="19"/>
-      <c r="D66" s="19"/>
-      <c r="E66" s="20"/>
-      <c r="F66" s="20"/>
-      <c r="G66" s="20"/>
-      <c r="H66" s="20"/>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A67" s="19"/>
-      <c r="B67" s="19"/>
-      <c r="C67" s="19"/>
-      <c r="D67" s="19"/>
-      <c r="E67" s="20"/>
-      <c r="F67" s="20"/>
-      <c r="G67" s="20"/>
-      <c r="H67" s="20"/>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A68" s="19"/>
-      <c r="B68" s="19"/>
-      <c r="C68" s="19"/>
-      <c r="D68" s="19"/>
-      <c r="E68" s="20"/>
-      <c r="F68" s="20"/>
-      <c r="G68" s="20"/>
-      <c r="H68" s="20"/>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A69" s="19"/>
-      <c r="B69" s="19"/>
-      <c r="C69" s="19"/>
-      <c r="D69" s="19"/>
-      <c r="E69" s="20"/>
-      <c r="F69" s="20"/>
-      <c r="G69" s="20"/>
-      <c r="H69" s="20"/>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A70" s="19"/>
-      <c r="B70" s="19"/>
-      <c r="C70" s="19"/>
-      <c r="D70" s="19"/>
-      <c r="E70" s="20"/>
-      <c r="F70" s="20"/>
-      <c r="G70" s="20"/>
-      <c r="H70" s="20"/>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A71" s="19"/>
-      <c r="B71" s="19"/>
-      <c r="C71" s="19"/>
-      <c r="D71" s="19"/>
-      <c r="E71" s="20"/>
-      <c r="F71" s="20"/>
-      <c r="G71" s="20"/>
-      <c r="H71" s="20"/>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A72" s="19"/>
-      <c r="B72" s="19"/>
-      <c r="C72" s="19"/>
-      <c r="D72" s="19"/>
-      <c r="E72" s="20"/>
-      <c r="F72" s="20"/>
-      <c r="G72" s="20"/>
-      <c r="H72" s="20"/>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A73" s="19"/>
-      <c r="B73" s="19"/>
-      <c r="C73" s="19"/>
-      <c r="D73" s="19"/>
-      <c r="E73" s="20"/>
-      <c r="F73" s="20"/>
-      <c r="G73" s="20"/>
-      <c r="H73" s="20"/>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A74" s="19"/>
-      <c r="B74" s="19"/>
-      <c r="C74" s="19"/>
-      <c r="D74" s="19"/>
-      <c r="E74" s="20"/>
-      <c r="F74" s="20"/>
-      <c r="G74" s="20"/>
-      <c r="H74" s="20"/>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A75" s="19"/>
-      <c r="B75" s="19"/>
-      <c r="C75" s="19"/>
-      <c r="D75" s="19"/>
-      <c r="E75" s="20"/>
-      <c r="F75" s="20"/>
-      <c r="G75" s="20"/>
-      <c r="H75" s="20"/>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A76" s="19"/>
-      <c r="B76" s="19"/>
-      <c r="C76" s="19"/>
-      <c r="D76" s="19"/>
-      <c r="E76" s="20"/>
-      <c r="F76" s="20"/>
-      <c r="G76" s="20"/>
-      <c r="H76" s="20"/>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A77" s="19"/>
-      <c r="B77" s="19"/>
-      <c r="C77" s="19"/>
-      <c r="D77" s="19"/>
-      <c r="E77" s="20"/>
-      <c r="F77" s="20"/>
-      <c r="G77" s="20"/>
-      <c r="H77" s="20"/>
+      <c r="H50" s="6"/>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="9"/>
+      <c r="B51" s="9"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="10"/>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="9"/>
+      <c r="B52" s="9"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="10"/>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="9"/>
+      <c r="B53" s="9"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="10"/>
+      <c r="H53" s="10"/>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="9"/>
+      <c r="B54" s="9"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="10"/>
+      <c r="G54" s="10"/>
+      <c r="H54" s="10"/>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="9"/>
+      <c r="B55" s="9"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="10"/>
+      <c r="G55" s="10"/>
+      <c r="H55" s="10"/>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="9"/>
+      <c r="B56" s="9"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="10"/>
+      <c r="G56" s="10"/>
+      <c r="H56" s="10"/>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="9"/>
+      <c r="B57" s="9"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="10"/>
+      <c r="G57" s="10"/>
+      <c r="H57" s="10"/>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="9"/>
+      <c r="B58" s="9"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="10"/>
+      <c r="G58" s="10"/>
+      <c r="H58" s="10"/>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="9"/>
+      <c r="B59" s="9"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="10"/>
+      <c r="F59" s="10"/>
+      <c r="G59" s="10"/>
+      <c r="H59" s="10"/>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="9"/>
+      <c r="B60" s="9"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="10"/>
+      <c r="F60" s="10"/>
+      <c r="G60" s="10"/>
+      <c r="H60" s="10"/>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="9"/>
+      <c r="B61" s="9"/>
+      <c r="C61" s="9"/>
+      <c r="D61" s="9"/>
+      <c r="E61" s="10"/>
+      <c r="F61" s="10"/>
+      <c r="G61" s="10"/>
+      <c r="H61" s="10"/>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="9"/>
+      <c r="B62" s="9"/>
+      <c r="C62" s="9"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="10"/>
+      <c r="F62" s="10"/>
+      <c r="G62" s="10"/>
+      <c r="H62" s="10"/>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="9"/>
+      <c r="B63" s="9"/>
+      <c r="C63" s="9"/>
+      <c r="D63" s="9"/>
+      <c r="E63" s="10"/>
+      <c r="F63" s="10"/>
+      <c r="G63" s="10"/>
+      <c r="H63" s="10"/>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="9"/>
+      <c r="B64" s="9"/>
+      <c r="C64" s="9"/>
+      <c r="D64" s="9"/>
+      <c r="E64" s="10"/>
+      <c r="F64" s="10"/>
+      <c r="G64" s="10"/>
+      <c r="H64" s="10"/>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" s="9"/>
+      <c r="B65" s="9"/>
+      <c r="C65" s="9"/>
+      <c r="D65" s="9"/>
+      <c r="E65" s="10"/>
+      <c r="F65" s="10"/>
+      <c r="G65" s="10"/>
+      <c r="H65" s="10"/>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" s="9"/>
+      <c r="B66" s="9"/>
+      <c r="C66" s="9"/>
+      <c r="D66" s="9"/>
+      <c r="E66" s="10"/>
+      <c r="F66" s="10"/>
+      <c r="G66" s="10"/>
+      <c r="H66" s="10"/>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" s="9"/>
+      <c r="B67" s="9"/>
+      <c r="C67" s="9"/>
+      <c r="D67" s="9"/>
+      <c r="E67" s="10"/>
+      <c r="F67" s="10"/>
+      <c r="G67" s="10"/>
+      <c r="H67" s="10"/>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" s="9"/>
+      <c r="B68" s="9"/>
+      <c r="C68" s="9"/>
+      <c r="D68" s="9"/>
+      <c r="E68" s="10"/>
+      <c r="F68" s="10"/>
+      <c r="G68" s="10"/>
+      <c r="H68" s="10"/>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" s="9"/>
+      <c r="B69" s="9"/>
+      <c r="C69" s="9"/>
+      <c r="D69" s="9"/>
+      <c r="E69" s="10"/>
+      <c r="F69" s="10"/>
+      <c r="G69" s="10"/>
+      <c r="H69" s="10"/>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" s="9"/>
+      <c r="B70" s="9"/>
+      <c r="C70" s="9"/>
+      <c r="D70" s="9"/>
+      <c r="E70" s="10"/>
+      <c r="F70" s="10"/>
+      <c r="G70" s="10"/>
+      <c r="H70" s="10"/>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" s="9"/>
+      <c r="B71" s="9"/>
+      <c r="C71" s="9"/>
+      <c r="D71" s="9"/>
+      <c r="E71" s="10"/>
+      <c r="F71" s="10"/>
+      <c r="G71" s="10"/>
+      <c r="H71" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A52:A56"/>
-    <mergeCell ref="B52:B56"/>
-    <mergeCell ref="C52:C56"/>
-    <mergeCell ref="D52:D56"/>
-    <mergeCell ref="C20:C28"/>
-    <mergeCell ref="D20:D28"/>
-    <mergeCell ref="A40:A51"/>
-    <mergeCell ref="B40:B51"/>
-    <mergeCell ref="C40:C51"/>
-    <mergeCell ref="D40:D51"/>
-    <mergeCell ref="A29:A39"/>
-    <mergeCell ref="B29:B39"/>
-    <mergeCell ref="C29:C39"/>
-    <mergeCell ref="D29:D39"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
     <mergeCell ref="A6:A19"/>
     <mergeCell ref="B6:B19"/>
     <mergeCell ref="C6:C19"/>
     <mergeCell ref="D6:D19"/>
-    <mergeCell ref="A20:A28"/>
-    <mergeCell ref="B20:B28"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="A46:A50"/>
+    <mergeCell ref="B46:B50"/>
+    <mergeCell ref="C46:C50"/>
+    <mergeCell ref="D46:D50"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="A34:A45"/>
+    <mergeCell ref="B34:B45"/>
+    <mergeCell ref="C34:C45"/>
+    <mergeCell ref="D34:D45"/>
+    <mergeCell ref="A23:A33"/>
+    <mergeCell ref="B23:B33"/>
+    <mergeCell ref="C23:C33"/>
+    <mergeCell ref="D23:D33"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2176,207 +2043,207 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38D23A69-878D-47B1-9B70-2BD2232FBBB4}">
   <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="13.54296875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="15.26953125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="18.1796875" style="5" customWidth="1"/>
-    <col min="4" max="4" width="20.36328125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="12" style="5" customWidth="1"/>
-    <col min="6" max="6" width="17" style="5" customWidth="1"/>
-    <col min="7" max="7" width="12.90625" style="5" customWidth="1"/>
-    <col min="8" max="10" width="8.7265625" style="5"/>
-    <col min="11" max="11" width="16.08984375" style="5" customWidth="1"/>
-    <col min="12" max="12" width="110.81640625" style="5" customWidth="1"/>
-    <col min="13" max="16384" width="8.7265625" style="5"/>
+    <col min="1" max="1" width="13.54296875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="15.26953125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="18.1796875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="20.36328125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12" style="4" customWidth="1"/>
+    <col min="6" max="6" width="17" style="4" customWidth="1"/>
+    <col min="7" max="7" width="12.90625" style="4" customWidth="1"/>
+    <col min="8" max="10" width="8.7265625" style="4"/>
+    <col min="11" max="11" width="16.08984375" style="4" customWidth="1"/>
+    <col min="12" max="12" width="110.81640625" style="4" customWidth="1"/>
+    <col min="13" max="16384" width="8.7265625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" ht="15" thickBot="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3"/>
-    </row>
-    <row r="2" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C1" s="12"/>
+    </row>
+    <row r="2" spans="1:12" ht="15" thickBot="1">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="3"/>
-    </row>
-    <row r="3" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="21" t="s">
+      <c r="C2" s="12"/>
+    </row>
+    <row r="3" spans="1:12" ht="15" thickBot="1"/>
+    <row r="4" spans="1:12" ht="15" thickBot="1">
+      <c r="A4" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="E4" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="G4" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="21" t="s">
+      <c r="H4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="21" t="s">
+      <c r="I4" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="21" t="s">
+      <c r="J4" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="21" t="s">
+      <c r="K4" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="L4" s="21" t="s">
+      <c r="L4" s="11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="116.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="B5" s="8" t="s">
+    <row r="5" spans="1:12" ht="116.5" customHeight="1" thickBot="1">
+      <c r="A5" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+    </row>
+    <row r="6" spans="1:12" ht="58.5" thickBot="1">
+      <c r="A6" s="20"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+    </row>
+    <row r="7" spans="1:12" ht="345" customHeight="1" thickBot="1">
+      <c r="A7" s="21"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="L7" s="5"/>
+    </row>
+    <row r="8" spans="1:12" ht="102" thickBot="1">
+      <c r="A8" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="D8" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+    </row>
+    <row r="9" spans="1:12" ht="399.5" customHeight="1" thickBot="1">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-    </row>
-    <row r="6" spans="1:12" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="6" t="s">
+      <c r="E9" s="5"/>
+      <c r="F9" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-    </row>
-    <row r="7" spans="1:12" ht="345" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="6" t="s">
+      <c r="G9" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="L7" s="6"/>
-    </row>
-    <row r="8" spans="1:12" ht="102" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-    </row>
-    <row r="9" spans="1:12" ht="399.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="K9" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="L9" s="6"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="L9" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="5">
